--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Indent</t>
   </si>
   <si>
-    <t>Number of Pages</t>
-  </si>
-  <si>
     <t>Video 1</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Part 4.6: Reasons for Confidence</t>
   </si>
   <si>
-    <t>Part 6: Conclusion</t>
-  </si>
-  <si>
     <t>Part 6a: Writing Your Own Internal 1</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>Suggestions for Excellence</t>
+  </si>
+  <si>
+    <t>Part 5: Conclusion</t>
+  </si>
+  <si>
+    <t>ylkkm47HFVM</t>
   </si>
 </sst>
 </file>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +461,7 @@
     <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -495,17 +495,14 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.8_1.html'&gt;</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -530,17 +527,17 @@
         <f>IF(ISNUMBER(SEARCH("_",G2))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A20" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.8_2.html'&gt;</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -565,17 +562,14 @@
         <f t="shared" ref="I3:I20" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_1.html' class='indent'&gt;</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -600,17 +594,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_2.html' class='indent'&gt;</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -635,17 +626,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_3.html'&gt;</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -670,17 +658,14 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4.html'&gt;</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -705,17 +690,14 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_1.html' class='indent'&gt;</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -740,17 +722,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_2.html' class='indent'&gt;</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -775,17 +754,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_3.html' class='indent'&gt;</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -810,17 +786,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_4.html' class='indent'&gt;</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -845,17 +818,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_5.html' class='indent'&gt;</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -880,17 +850,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_6.html' class='indent'&gt;</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -915,52 +882,46 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_6.html'&gt;</v>
+        <v>&lt;a href='3.8_5.html'&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="4"/>
-        <v>Part 6</v>
+        <v>Part 5</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
-        <v>3.8_6</v>
+        <v>3.8_5</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_6a.html'&gt;</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -985,17 +946,14 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_6b.html'&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -1020,128 +978,113 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app1.html'&gt;</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>app1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app2.html'&gt;</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>app2</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app2</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app3.html'&gt;</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>app1</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app1</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>app3</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app3</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app2.html'&gt;</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app4.html'&gt;</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>app2</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app2</v>
-      </c>
-      <c r="I18" t="str">
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>app4</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app4</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
         <v/>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app3.html'&gt;</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>app3</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app3</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app4.html'&gt;</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>app4</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app4</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Part 5: Conclusion</t>
-  </si>
-  <si>
-    <t>ylkkm47HFVM</t>
   </si>
 </sst>
 </file>
@@ -527,9 +524,6 @@
         <f>IF(ISNUMBER(SEARCH("_",G2))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="str">

--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Part 3: Data - Using NZGrapher</t>
   </si>
   <si>
-    <t>Assessment Guidelines - 91580 - Investigate Time Series Data</t>
-  </si>
-  <si>
     <t>Part 4.1: Long Term Trend</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Part 5: Conclusion</t>
+  </si>
+  <si>
+    <t>Assessment Guidelines</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +691,7 @@
         <v>&lt;a href='3.8_4_1.html' class='indent'&gt;</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>&lt;a href='3.8_4_2.html' class='indent'&gt;</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>&lt;a href='3.8_4_4.html' class='indent'&gt;</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>&lt;a href='3.8_5.html'&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -1006,13 +1006,13 @@
         <v>&lt;a href='3.8_app2.html'&gt;</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -1060,13 +1060,13 @@
         <v>&lt;a href='3.8_app4.html'&gt;</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>

--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Documents\GitHub\students.mathsnz.com\3.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\3.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Part 4: Analysis</t>
   </si>
   <si>
-    <t>Part 4.3: Outliers</t>
-  </si>
-  <si>
     <t>Part 4.5: Predictions</t>
   </si>
   <si>
@@ -126,12 +123,21 @@
   </si>
   <si>
     <t>Assessment Guidelines</t>
+  </si>
+  <si>
+    <t>Part 4.3: Unusual Points</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,7 +464,7 @@
     <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -492,8 +498,14 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.8_1.html'&gt;</v>
@@ -524,8 +536,12 @@
         <f>IF(ISNUMBER(SEARCH("_",G2))," class='indent'","")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="str">
+        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;H2&amp;".pdf&amp;embedded=true"</f>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A20" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.8_2.html'&gt;</v>
@@ -556,8 +572,12 @@
         <f t="shared" ref="I3:I20" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M20" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;H3&amp;".pdf&amp;embedded=true"</f>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_1.html' class='indent'&gt;</v>
@@ -588,8 +608,12 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_2_1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_2.html' class='indent'&gt;</v>
@@ -601,11 +625,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E16" si="4">LEFT(B5,FIND(":",B5)-1)</f>
+        <f t="shared" ref="E5:E16" si="5">LEFT(B5,FIND(":",B5)-1)</f>
         <v>Part 2.2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F16" si="5">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
+        <f t="shared" ref="F5:F16" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
         <v>2.2</v>
       </c>
       <c r="G5" t="str">
@@ -620,24 +644,28 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_2_2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_3.html'&gt;</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 3</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G6" t="str">
@@ -652,8 +680,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4.html'&gt;</v>
@@ -665,420 +697,476 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4</v>
       </c>
       <c r="F7" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_4_1.html' class='indent'&gt;</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4</v>
-      </c>
-      <c r="I7" t="str">
+        <v>Part 4.1</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="6"/>
+        <v>4.1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>4_1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4_1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_4_2.html' class='indent'&gt;</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 4.2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="6"/>
+        <v>4.2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>4_2</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4_2</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_4_3.html' class='indent'&gt;</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 4.3</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="6"/>
+        <v>4.3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>4_3</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4_3</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_4_4.html' class='indent'&gt;</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 4.4</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="6"/>
+        <v>4.4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>4_4</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4_4</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_4.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_4_5.html' class='indent'&gt;</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 4.5</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>4_5</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4_5</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_5.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_4_6.html' class='indent'&gt;</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 4.6</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="6"/>
+        <v>4.6</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>4_6</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_4_6</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_6.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_5.html'&gt;</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_5</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_4_1.html' class='indent'&gt;</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 4.1</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_5.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_6a.html'&gt;</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="5"/>
-        <v>4.1</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>4_1</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4_1</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_4_2.html' class='indent'&gt;</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 4.2</v>
-      </c>
-      <c r="F9" t="str">
+        <v>Part 6a</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="6"/>
+        <v>6a</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>6a</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_6a</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_6a.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_6b.html'&gt;</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="5"/>
-        <v>4.2</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>4_2</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4_2</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_4_3.html' class='indent'&gt;</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 4.3</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>4_3</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4_3</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_4_4.html' class='indent'&gt;</v>
-      </c>
-      <c r="B11" t="s">
+        <v>Part 6b</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="6"/>
+        <v>6b</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>6b</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_6b</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_6b.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app1.html'&gt;</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 4.4</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="5"/>
-        <v>4.4</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>4_4</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4_4</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_4_5.html' class='indent'&gt;</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 4.5</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>4_5</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4_5</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_4_6.html' class='indent'&gt;</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 4.6</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="5"/>
-        <v>4.6</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>4_6</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_4_6</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_5.html'&gt;</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>app1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app2.html'&gt;</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>app2</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app2</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app3.html'&gt;</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>app3</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app3</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.8_app4.html'&gt;</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 5</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_5</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>app4</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>3.8_app4</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_6a.html'&gt;</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 6a</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="5"/>
-        <v>6a</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>6a</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_6a</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_6b.html'&gt;</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="4"/>
-        <v>Part 6b</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="5"/>
-        <v>6b</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>6b</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_6b</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app1.html'&gt;</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>app1</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app1</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app2.html'&gt;</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>app2</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app2</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app3.html'&gt;</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>app3</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app3</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.8_app4.html'&gt;</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>app4</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>3.8_app4</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app4.pdf&amp;embedded=true</v>
       </c>
     </row>
   </sheetData>

--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -128,20 +128,55 @@
     <t>Part 4.3: Unusual Points</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Questions</t>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66,</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6,</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>On-Screen Questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,16 +199,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,7 +493,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -537,8 +575,11 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;H2&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_1.pdf&amp;embedded=true</v>
+        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;G2&amp;".pdf&amp;embedded=true"</f>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -572,10 +613,6 @@
         <f t="shared" ref="I3:I20" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M20" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;H3&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_2.pdf&amp;embedded=true</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
@@ -609,8 +646,11 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_2_1.pdf&amp;embedded=true</v>
+        <f t="shared" ref="M3:M20" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/2_1.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -646,7 +686,10 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_2_2.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/2_2.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -682,7 +725,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_3.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -718,7 +761,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -754,7 +797,10 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_1.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_1.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -790,7 +836,10 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_2.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_2.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -826,7 +875,10 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_3.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_3.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -862,7 +914,10 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_4.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_4.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -898,7 +953,10 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_5.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_5.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -934,7 +992,10 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_4_6.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_6.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -970,7 +1031,10 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_5.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/5.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1006,7 +1070,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_6a.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/6a.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1042,7 +1106,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_6b.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/6b.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1073,7 +1137,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app1.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app1.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1104,7 +1168,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app2.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app2.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1135,7 +1199,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app3.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app3.pdf&amp;embedded=true</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1166,11 +1230,23 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.8_app4.pdf&amp;embedded=true</v>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app4.pdf&amp;embedded=true</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" location="timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,"/>
+    <hyperlink ref="N4" r:id="rId2" location="timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,"/>
+    <hyperlink ref="N5" r:id="rId3" location="timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,"/>
+    <hyperlink ref="N8" r:id="rId4" location="timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,"/>
+    <hyperlink ref="N9" r:id="rId5" location="timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,"/>
+    <hyperlink ref="N10" r:id="rId6" location="timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,"/>
+    <hyperlink ref="N11" r:id="rId7" location="timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46,"/>
+    <hyperlink ref="N12" r:id="rId8" location="timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56,"/>
+    <hyperlink ref="N13" r:id="rId9" location="timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66,"/>
+    <hyperlink ref="N14" r:id="rId10" location="timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6,"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>On-Screen Questions</t>
+  </si>
+  <si>
+    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26,</t>
   </si>
 </sst>
 </file>
@@ -492,17 +495,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -543,7 +546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.8_1.html'&gt;</v>
@@ -582,7 +585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A20" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.8_2.html'&gt;</v>
@@ -614,7 +617,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_1.html' class='indent'&gt;</v>
@@ -646,14 +649,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M3:M20" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
+        <f t="shared" ref="M4:M20" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/2_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_2.html' class='indent'&gt;</v>
@@ -689,10 +692,10 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/2_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_3.html'&gt;</v>
@@ -728,7 +731,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4.html'&gt;</v>
@@ -764,7 +767,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_1.html' class='indent'&gt;</v>
@@ -803,7 +806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_2.html' class='indent'&gt;</v>
@@ -842,7 +845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_3.html' class='indent'&gt;</v>
@@ -881,7 +884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_4.html' class='indent'&gt;</v>
@@ -920,7 +923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_5.html' class='indent'&gt;</v>
@@ -959,7 +962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_6.html' class='indent'&gt;</v>
@@ -998,7 +1001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_5.html'&gt;</v>
@@ -1037,7 +1040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_6a.html'&gt;</v>
@@ -1073,7 +1076,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/6a.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_6b.html'&gt;</v>
@@ -1109,7 +1112,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/6b.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app1.html'&gt;</v>
@@ -1140,7 +1143,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app1.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app2.html'&gt;</v>
@@ -1171,7 +1174,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app2.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app3.html'&gt;</v>
@@ -1202,7 +1205,7 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app3.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app4.html'&gt;</v>
@@ -1237,7 +1240,7 @@
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" location="timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,"/>
     <hyperlink ref="N4" r:id="rId2" location="timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,"/>
-    <hyperlink ref="N5" r:id="rId3" location="timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,"/>
+    <hyperlink ref="N5" r:id="rId3" location="timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26,"/>
     <hyperlink ref="N8" r:id="rId4" location="timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,"/>
     <hyperlink ref="N9" r:id="rId5" location="timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,"/>
     <hyperlink ref="N10" r:id="rId6" location="timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,"/>

--- a/3.8/left.xlsx
+++ b/3.8/left.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\3.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/3.8/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -128,46 +134,46 @@
     <t>Part 4.3: Unusual Points</t>
   </si>
   <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66,</t>
-  </si>
-  <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6,</t>
-  </si>
-  <si>
     <t>PDF</t>
   </si>
   <si>
     <t>On-Screen Questions</t>
   </si>
   <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26,</t>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66,</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,9 +282,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -311,9 +317,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -496,16 +502,16 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -540,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.8_1.html'&gt;</v>
@@ -578,14 +584,14 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;G2&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
+        <f>"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/"&amp;G2&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A20" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.8_2.html'&gt;</v>
@@ -617,7 +623,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_1.html' class='indent'&gt;</v>
@@ -649,14 +655,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M20" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/2_1.pdf&amp;embedded=true</v>
+        <f>"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/2_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_2_2.html' class='indent'&gt;</v>
@@ -668,11 +674,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E16" si="5">LEFT(B5,FIND(":",B5)-1)</f>
+        <f t="shared" ref="E5:E16" si="4">LEFT(B5,FIND(":",B5)-1)</f>
         <v>Part 2.2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F16" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
+        <f t="shared" ref="F5:F16" si="5">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
         <v>2.2</v>
       </c>
       <c r="G5" t="str">
@@ -688,14 +694,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/2_2.pdf&amp;embedded=true</v>
+        <f t="shared" ref="M5:M20" si="6">"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/"&amp;G5&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/2_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_3.html'&gt;</v>
@@ -707,11 +713,11 @@
         <v>0</v>
       </c>
       <c r="E6" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 3</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="5"/>
-        <v>Part 3</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G6" t="str">
@@ -727,11 +733,11 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/3.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4.html'&gt;</v>
@@ -743,11 +749,11 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G7" t="str">
@@ -763,11 +769,11 @@
         <v/>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_1.html' class='indent'&gt;</v>
@@ -779,11 +785,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4.1</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4.1</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="6"/>
         <v>4.1</v>
       </c>
       <c r="G8" t="str">
@@ -799,14 +805,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_1.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_2.html' class='indent'&gt;</v>
@@ -818,11 +824,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4.2</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4.2</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
       <c r="G9" t="str">
@@ -838,14 +844,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_2.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_3.html' class='indent'&gt;</v>
@@ -857,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4.3</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4.3</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="6"/>
         <v>4.3</v>
       </c>
       <c r="G10" t="str">
@@ -877,14 +883,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_3.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4_3.pdf&amp;embedded=true</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_4.html' class='indent'&gt;</v>
@@ -896,11 +902,11 @@
         <v>0</v>
       </c>
       <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4.4</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4.4</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="6"/>
         <v>4.4</v>
       </c>
       <c r="G11" t="str">
@@ -916,14 +922,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_4.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4_4.pdf&amp;embedded=true</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_5.html' class='indent'&gt;</v>
@@ -935,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4.5</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4.5</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="G12" t="str">
@@ -955,14 +961,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_5.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4_5.pdf&amp;embedded=true</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_4_6.html' class='indent'&gt;</v>
@@ -974,11 +980,11 @@
         <v>0</v>
       </c>
       <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 4.6</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="5"/>
-        <v>Part 4.6</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="6"/>
         <v>4.6</v>
       </c>
       <c r="G13" t="str">
@@ -994,14 +1000,14 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/4_6.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/4_6.pdf&amp;embedded=true</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_5.html'&gt;</v>
@@ -1013,11 +1019,11 @@
         <v>0</v>
       </c>
       <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 5</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="5"/>
-        <v>Part 5</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G14" t="str">
@@ -1033,14 +1039,14 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/5.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/5.pdf&amp;embedded=true</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_6a.html'&gt;</v>
@@ -1052,11 +1058,11 @@
         <v>0</v>
       </c>
       <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 6a</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="5"/>
-        <v>Part 6a</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="6"/>
         <v>6a</v>
       </c>
       <c r="G15" t="str">
@@ -1072,11 +1078,11 @@
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/6a.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/6a.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_6b.html'&gt;</v>
@@ -1088,11 +1094,11 @@
         <v>0</v>
       </c>
       <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>Part 6b</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="5"/>
-        <v>Part 6b</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="6"/>
         <v>6b</v>
       </c>
       <c r="G16" t="str">
@@ -1108,11 +1114,11 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/6b.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/6b.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app1.html'&gt;</v>
@@ -1139,11 +1145,11 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app1.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/app1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app2.html'&gt;</v>
@@ -1170,11 +1176,11 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app2.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/app2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app3.html'&gt;</v>
@@ -1201,11 +1207,11 @@
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app3.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/app3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.8_app4.html'&gt;</v>
@@ -1232,22 +1238,22 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/app4.pdf&amp;embedded=true</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.8/pdfs/app4.pdf&amp;embedded=true</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" location="timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,"/>
-    <hyperlink ref="N4" r:id="rId2" location="timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,"/>
-    <hyperlink ref="N5" r:id="rId3" location="timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26,"/>
-    <hyperlink ref="N8" r:id="rId4" location="timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,"/>
-    <hyperlink ref="N9" r:id="rId5" location="timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,"/>
-    <hyperlink ref="N10" r:id="rId6" location="timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,"/>
-    <hyperlink ref="N11" r:id="rId7" location="timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46,"/>
-    <hyperlink ref="N12" r:id="rId8" location="timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56,"/>
-    <hyperlink ref="N13" r:id="rId9" location="timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66,"/>
-    <hyperlink ref="N14" r:id="rId10" location="timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6,"/>
+    <hyperlink ref="N2" r:id="rId1" location="timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6," display="http://students.mathsnz.com/qg/onscreen.html#timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,"/>
+    <hyperlink ref="N4" r:id="rId2" location="timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16," display="http://students.mathsnz.com/qg/onscreen.html#timeseries2plan13,timeseries2plan14,timeseries2plan15,timeseries2plan16,"/>
+    <hyperlink ref="N5" r:id="rId3" location="timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26," display="http://students.mathsnz.com/qg/onscreen.html#timeseries2plan23,timeseries2plan24,timeseries2plan25,timeseries2plan26,"/>
+    <hyperlink ref="N8" r:id="rId4" location="timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16," display="http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis13,timeseries4analysis14,timeseries4analysis15,timeseries4analysis16,"/>
+    <hyperlink ref="N9" r:id="rId5" location="timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26," display="http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis23,timeseries4analysis24,timeseries4analysis25,timeseries4analysis26,"/>
+    <hyperlink ref="N10" r:id="rId6" location="timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36," display="http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis33,timeseries4analysis34,timeseries4analysis35,timeseries4analysis36,"/>
+    <hyperlink ref="N11" r:id="rId7" location="timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46," display="http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis43,timeseries4analysis44,timeseries4analysis45,timeseries4analysis46,"/>
+    <hyperlink ref="N12" r:id="rId8" location="timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56," display="http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis53,timeseries4analysis54,timeseries4analysis55,timeseries4analysis56,"/>
+    <hyperlink ref="N13" r:id="rId9" location="timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66," display="http://students.mathsnz.com/qg/onscreen.html#timeseries4analysis63,timeseries4analysis64,timeseries4analysis65,timeseries4analysis66,"/>
+    <hyperlink ref="N14" r:id="rId10" location="timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6," display="http://students.mathsnz.com/qg/onscreen.html#timeseries5conclusion3,timeseries5conclusion4,timeseries5conclusion5,timeseries5conclusion6,"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
